--- a/process-data-with-mathematica/contents-data.xlsx
+++ b/process-data-with-mathematica/contents-data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\lixuan.me\process-data-with-mathematica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\lixuan.me\process-data-with-mathematica\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>数据</t>
   </si>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>moon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>motto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,13 @@
   </si>
   <si>
     <t>二级目录-name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">isActive </t>
+  </si>
+  <si>
+    <t>picture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,8 +232,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -557,260 +563,314 @@
   <cols>
     <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
-        <v>29</v>
+      <c r="E18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/process-data-with-mathematica/contents-data.xlsx
+++ b/process-data-with-mathematica/contents-data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\lixuan.me\process-data-with-mathematica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\lixuan.me\process-data-with-mathematica\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>数据</t>
   </si>
@@ -56,18 +56,6 @@
     <t>文章</t>
   </si>
   <si>
-    <t>网站：Mathematica 问答社区</t>
-  </si>
-  <si>
-    <t>网站：数学之路 - 数学论坛</t>
-  </si>
-  <si>
-    <t>博客：闲云谷•数理版</t>
-  </si>
-  <si>
-    <t>博客：闲云谷•娱乐版</t>
-  </si>
-  <si>
     <t>公益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,14 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mmaqa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuxue6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,7 +107,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主页：您正在浏览</t>
+    <t>我的笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data-share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>welfare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>一级目录-key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级目录-key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级目录-name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级目录-name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianyungu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的GitHub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,57 +166,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GitHub中的项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuli-xianyungu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yule-xianyungu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data-share</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>welfare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collections</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entertainment</t>
-  </si>
-  <si>
-    <t>一级目录-key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级目录-key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级目录-name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级目录-name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">isActive </t>
-  </si>
-  <si>
-    <t>picture</t>
+    <t>李宣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about-me</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,11 +221,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,324 +539,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="b">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="b">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="b">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="b">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="1" t="b">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="b">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/process-data-with-mathematica/contents-data.xlsx
+++ b/process-data-with-mathematica/contents-data.xlsx
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
-  <si>
-    <t>典藏</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>网站</t>
   </si>
@@ -42,96 +39,205 @@
     <t>影视</t>
   </si>
   <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>about-me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>博客</t>
+  </si>
+  <si>
+    <t>格言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photography</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-book</t>
+  </si>
+  <si>
+    <t>ico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-web</t>
+  </si>
+  <si>
+    <t>fi-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-torso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-play-video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-bookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-social-windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-social-blogger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我制作的××</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢的××</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢的××</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>文章</t>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collections</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教程</t>
-  </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>我的收藏</t>
-  </si>
-  <si>
-    <t>我的收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简历[密]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutorial</t>
-  </si>
-  <si>
-    <t>blog</t>
-  </si>
-  <si>
-    <t>about-me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi-page-filled</t>
+  </si>
+  <si>
+    <t>favorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,197 +245,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>github</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>博客</t>
-  </si>
-  <si>
-    <t>artical</t>
-  </si>
-  <si>
-    <t>collections</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collections</t>
-  </si>
-  <si>
-    <t>短文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>essay</t>
-  </si>
-  <si>
-    <t>演奏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photography</t>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原创</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原创</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原创</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原创作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>works</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>works</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>works</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>关于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>about</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-book</t>
-  </si>
-  <si>
-    <t>ico</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-web</t>
-  </si>
-  <si>
-    <t>fi-web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-torso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-database</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-social-github</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-play-video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-bookmark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-social-windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-social-blogger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-calendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-page-edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi-page-filled</t>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -826,59 +750,6 @@
         <color theme="4" tint="0.39994506668294322"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thick">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top/>
       <bottom style="thick">
         <color theme="4" tint="-0.24994659260841701"/>
       </bottom>
@@ -995,15 +866,6 @@
       <bottom style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1023,7 +885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,24 +919,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,9 +929,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,6 +970,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,10 +988,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1156,28 +1000,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1494,479 +1335,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H23"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:7" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="20" t="s">
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="G12" s="8"/>
     </row>
-    <row r="2" spans="2:8" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>32</v>
-      </c>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="25" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="28"/>
+      <c r="C17" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="33"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process-data-with-mathematica/contents-data.xlsx
+++ b/process-data-with-mathematica/contents-data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>网站</t>
   </si>
@@ -62,28 +62,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tutorial</t>
   </si>
   <si>
     <t>blog</t>
   </si>
   <si>
-    <t>about-me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一级目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,9 +105,6 @@
     <t>photography</t>
   </si>
   <si>
-    <t>management</t>
-  </si>
-  <si>
     <t>笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fi-torso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fi-music</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,18 +151,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fi-calendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fi-key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关于我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我制作的××</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,18 +211,6 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -670,6 +627,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color theme="4" tint="-0.24994659260841701"/>
       </left>
@@ -679,22 +686,7 @@
       <top style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color theme="4" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
@@ -707,7 +699,7 @@
       <top style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color theme="4" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
@@ -722,7 +714,7 @@
       <top style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color theme="4" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
@@ -731,149 +723,40 @@
       <left style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </left>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
       <right style="thick">
         <color theme="4" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thick">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top/>
       <bottom style="thick">
         <color theme="4" tint="-0.24994659260841701"/>
       </bottom>
@@ -885,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,7 +838,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,10 +853,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -987,39 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,11 +1200,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -1355,302 +1220,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:7" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="22"/>
+      <c r="B3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="27"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="10"/>
+      <c r="B5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="8"/>
+      <c r="B8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="22"/>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="8"/>
+    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
